--- a/biology/Botanique/Myricaria/Myricaria.xlsx
+++ b/biology/Botanique/Myricaria/Myricaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Myricaria est un genre de plantes de la famille des Tamaricaceae. Il comprend treize espèces que l'on rencontre dans la zone tempérée du nord de l'Europe et de l'Asie dont dix espèces en Chine. La seule espèce que l'on trouve en Europe est le Tamarin allemand (Myricaria germanica).
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (24 avril 2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (24 avril 2016) :
 Myricaria albiflora Grierson &amp; D.G. Long
 Myricaria bracteata Royle
 Myricaria davurica (Willd.) Ehrenb.
@@ -555,7 +571,7 @@
 Myricaria schartii Vassilcz.
 Myricaria squamosa Desv.
 Myricaria wardii C. Marquand
-Selon NCBI  (24 avril 2016)[3] :
+Selon NCBI  (24 avril 2016) :
 Myricaria alopecuroides
 Myricaria bracteata
 Myricaria davurica
@@ -572,7 +588,7 @@
 Myricaria rosea
 Myricaria squamosa
 Myricaria wardii
-Selon The Plant List            (24 avril 2016)[4] :
+Selon The Plant List            (24 avril 2016) :
 Myricaria albiflora Grierson &amp; D.G. Long
 Myricaria davurica (Willd.) Ehrenb.
 Myricaria elegans Royle
@@ -585,7 +601,7 @@
 Myricaria pulcherrima Batalin
 Myricaria rosea W.W. Sm.
 Myricaria wardii C. Marquand
-Selon Tropicos                                           (24 avril 2016)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 avril 2016) (Attention liste brute contenant possiblement des synonymes) :
 Myricaria albiflora Grierson &amp; D.G. Long
 Myricaria alopecuroides Schrenk ex Fisch. &amp; C.A. Mey.
 Myricaria armena Boiss.
